--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_studies/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91018BB9-1C92-454E-ACA9-50529191A4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0F1AF-08C8-DD41-91E8-463F83C97A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
+    <workbookView xWindow="1440" yWindow="4440" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$18</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>Zhao</t>
   </si>
@@ -43,18 +36,12 @@
     <t>Westfall</t>
   </si>
   <si>
-    <t>Aquion</t>
-  </si>
-  <si>
     <t>Tokunaga</t>
   </si>
   <si>
     <t>Mills</t>
   </si>
   <si>
-    <t>Burden</t>
-  </si>
-  <si>
     <t>Pecl</t>
   </si>
   <si>
@@ -85,18 +72,12 @@
     <t>number</t>
   </si>
   <si>
-    <t>Friedman</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
     <t>Kleisner</t>
   </si>
   <si>
-    <t>Kisara</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
@@ -112,9 +93,6 @@
     <t>large</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>lat_dd</t>
   </si>
   <si>
@@ -212,13 +190,55 @@
   </si>
   <si>
     <t>Galacia stalked barnacles</t>
+  </si>
+  <si>
+    <t>Aguion/Valle</t>
+  </si>
+  <si>
+    <t>Friedman/Mangubhai</t>
+  </si>
+  <si>
+    <t>Burden/Fujita</t>
+  </si>
+  <si>
+    <t>Gaku/Yuga</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>coastal</t>
+  </si>
+  <si>
+    <t>pelagic</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>lat_dd_abs</t>
+  </si>
+  <si>
+    <t>general_taxa</t>
+  </si>
+  <si>
+    <t>bivalve</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>crustacean</t>
+  </si>
+  <si>
+    <t>squid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,16 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,12 +284,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,496 +604,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110211A1-9130-D748-A664-7358193EB36A}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3">
+        <f>ABS(J2)</f>
+        <v>42.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <f>ABS(J3)</f>
+        <v>32.715000000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <v>32.715000000000003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-117.16249999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <f>ABS(J4)</f>
+        <v>56</v>
+      </c>
+      <c r="J4" s="3">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3">
+        <f>ABS(J5)</f>
+        <v>1.4166669999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.4166669999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
+        <f>ABS(J6)</f>
+        <v>36.621070000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>36.621070000000003</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-119.93416999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <f>ABS(J7)</f>
+        <v>17.416088999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-17.416088999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>178.35775799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <f>ABS(J8)</f>
+        <v>20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-20</v>
+      </c>
+      <c r="K8" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3">
+        <f>ABS(J9)</f>
+        <v>58</v>
+      </c>
+      <c r="J9" s="3">
+        <v>58</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <f>ABS(J10)</f>
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43</v>
+      </c>
+      <c r="K10" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <f>ABS(J11)</f>
+        <v>33.641388999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-33.641388999999997</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-78.841110999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3">
+        <f>ABS(J12)</f>
+        <v>5.2166670000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-5.2166670000000002</v>
+      </c>
+      <c r="K12" s="3">
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3">
+        <f>ABS(J13)</f>
+        <v>65</v>
+      </c>
+      <c r="J13" s="3">
+        <v>65</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <f>ABS(J14)</f>
+        <v>45</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <f>ABS(J15)</f>
+        <v>42</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-42</v>
+      </c>
+      <c r="K15" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3">
+        <f>ABS(J16)</f>
+        <v>36</v>
+      </c>
+      <c r="J16" s="3">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <f>ABS(J17)</f>
+        <v>25</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2">
-        <v>42.5</v>
-      </c>
-      <c r="E2">
-        <v>-8.1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>32.715000000000003</v>
-      </c>
-      <c r="E3">
-        <v>-117.16249999999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>1.4166669999999999</v>
-      </c>
-      <c r="E5">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>36.621070000000003</v>
-      </c>
-      <c r="E6">
-        <v>-119.93416999999999</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>-17.416088999999999</v>
-      </c>
-      <c r="E7">
-        <v>178.35775799999999</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8">
-        <v>-20</v>
-      </c>
-      <c r="E8">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>-178</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>142</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>-33.641388999999997</v>
-      </c>
-      <c r="E11">
-        <v>-78.841110999999998</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>-5.2166670000000002</v>
-      </c>
-      <c r="E12">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>-18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>-69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>-42</v>
-      </c>
-      <c r="E15">
-        <v>147</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>-90</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
+      <c r="I18" s="3">
+        <f>ABS(J18)</f>
+        <v>17.533332999999999</v>
+      </c>
+      <c r="J18" s="3">
         <v>-17.533332999999999</v>
       </c>
-      <c r="E18">
+      <c r="K18" s="3">
         <v>-149.83333300000001</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
-    <sortCondition ref="B2:B18"/>
-  </sortState>
+  <autoFilter ref="A1:K18" xr:uid="{AEE2DA7E-BB06-9C4E-BB11-C7D5A6AED76B}">
+    <sortState ref="A2:K18">
+      <sortCondition ref="A1:A18"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0F1AF-08C8-DD41-91E8-463F83C97A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E980CF-FA42-AA4F-8230-2800A88CADFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="4440" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E980CF-FA42-AA4F-8230-2800A88CADFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680D194-E4A1-3741-99BB-19256CC2075A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="4440" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
+    <workbookView xWindow="3220" yWindow="6080" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Zhao</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>squid</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Senegalese small pelagics</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110211A1-9130-D748-A664-7358193EB36A}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="3">
-        <f>ABS(J2)</f>
+        <f t="shared" ref="I2:I19" si="0">ABS(J2)</f>
         <v>42.5</v>
       </c>
       <c r="J2" s="3">
@@ -722,7 +731,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="3">
-        <f>ABS(J3)</f>
+        <f t="shared" si="0"/>
         <v>32.715000000000003</v>
       </c>
       <c r="J3" s="3">
@@ -758,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="3">
-        <f>ABS(J4)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="J4" s="3">
@@ -794,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="3">
-        <f>ABS(J5)</f>
+        <f t="shared" si="0"/>
         <v>1.4166669999999999</v>
       </c>
       <c r="J5" s="3">
@@ -830,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3">
-        <f>ABS(J6)</f>
+        <f t="shared" si="0"/>
         <v>36.621070000000003</v>
       </c>
       <c r="J6" s="3">
@@ -866,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="3">
-        <f>ABS(J7)</f>
+        <f t="shared" si="0"/>
         <v>17.416088999999999</v>
       </c>
       <c r="J7" s="3">
@@ -902,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="3">
-        <f>ABS(J8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J8" s="3">
@@ -938,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="3">
-        <f>ABS(J9)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="J9" s="3">
@@ -974,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="3">
-        <f>ABS(J10)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J10" s="3">
@@ -1010,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="3">
-        <f>ABS(J11)</f>
+        <f t="shared" si="0"/>
         <v>33.641388999999997</v>
       </c>
       <c r="J11" s="3">
@@ -1046,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="3">
-        <f>ABS(J12)</f>
+        <f t="shared" si="0"/>
         <v>5.2166670000000002</v>
       </c>
       <c r="J12" s="3">
@@ -1082,7 +1091,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="3">
-        <f>ABS(J13)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="J13" s="3">
@@ -1118,7 +1127,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="3">
-        <f>ABS(J14)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="J14" s="3">
@@ -1154,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="3">
-        <f>ABS(J15)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="J15" s="3">
@@ -1190,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="3">
-        <f>ABS(J16)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J16" s="3">
@@ -1226,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="3">
-        <f>ABS(J17)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J17" s="3">
@@ -1262,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="3">
-        <f>ABS(J18)</f>
+        <f t="shared" si="0"/>
         <v>17.533332999999999</v>
       </c>
       <c r="J18" s="3">
@@ -1270,6 +1279,42 @@
       </c>
       <c r="K18" s="3">
         <v>-149.83333300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>15.849506</v>
+      </c>
+      <c r="J19" s="3">
+        <v>15.849506</v>
+      </c>
+      <c r="K19" s="3">
+        <v>-17.417577000000001</v>
       </c>
     </row>
   </sheetData>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680D194-E4A1-3741-99BB-19256CC2075A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B700D318-201C-484D-899B-7F19312EAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="6080" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
+    <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$18</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,9 +70,6 @@
     <t>Golden</t>
   </si>
   <si>
-    <t>Hollowed</t>
-  </si>
-  <si>
     <t>person</t>
   </si>
   <si>
@@ -75,9 +82,6 @@
     <t>Fiji</t>
   </si>
   <si>
-    <t>Kleisner</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
@@ -241,6 +245,12 @@
   </si>
   <si>
     <t>Senegalese small pelagics</t>
+  </si>
+  <si>
+    <t>Hollowed/Kasperski</t>
+  </si>
+  <si>
+    <t>Kleisner/Cunningham</t>
   </si>
 </sst>
 </file>
@@ -616,7 +626,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,37 +646,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -674,25 +684,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I19" si="0">ABS(J2)</f>
@@ -710,25 +720,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
@@ -749,22 +759,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -785,22 +795,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -818,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
@@ -854,25 +864,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -893,22 +903,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -926,25 +936,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -962,25 +972,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -998,25 +1008,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -1037,22 +1047,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -1073,22 +1083,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -1109,22 +1119,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -1145,22 +1155,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -1181,22 +1191,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -1217,22 +1227,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -1253,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -1286,25 +1296,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
@@ -1319,7 +1329,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{AEE2DA7E-BB06-9C4E-BB11-C7D5A6AED76B}">
-    <sortState ref="A2:K18">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
       <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B700D318-201C-484D-899B-7F19312EAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533F1E5-C2A6-CF4B-BDE7-C9640DA68E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>California Dungeness crab</t>
   </si>
   <si>
-    <t>Galacia stalked barnacles</t>
-  </si>
-  <si>
     <t>Aguion/Valle</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Kleisner/Cunningham</t>
+  </si>
+  <si>
+    <t>Galicia stalked barnacles</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -664,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -684,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>23</v>
@@ -720,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>23</v>
@@ -762,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>22</v>
@@ -798,7 +798,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>22</v>
@@ -834,7 +834,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -864,13 +864,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>22</v>
@@ -906,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -915,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>22</v>
@@ -936,13 +936,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>22</v>
@@ -972,13 +972,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1050,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>22</v>
@@ -1086,7 +1086,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>22</v>
@@ -1122,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
@@ -1194,7 +1194,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -1239,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>22</v>
@@ -1296,22 +1296,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533F1E5-C2A6-CF4B-BDE7-C9640DA68E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C496A39-1222-C345-92DF-CA69EE035059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>US Atlantic pelagic longline</t>
   </si>
   <si>
-    <t>Japanese spiny lobster</t>
-  </si>
-  <si>
     <t>Maine lobster</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>Senegal</t>
   </si>
   <si>
-    <t>Senegalese small pelagics</t>
-  </si>
-  <si>
     <t>Hollowed/Kasperski</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>Galicia stalked barnacles</t>
+  </si>
+  <si>
+    <t>Japan spiny lobster</t>
+  </si>
+  <si>
+    <t>Senegal small pelagics</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -664,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -684,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>23</v>
@@ -720,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>23</v>
@@ -759,10 +759,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>22</v>
@@ -795,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>22</v>
@@ -831,10 +831,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -864,13 +864,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>22</v>
@@ -903,10 +903,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -915,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>22</v>
@@ -936,13 +936,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>22</v>
@@ -972,13 +972,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1047,10 +1047,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>22</v>
@@ -1083,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>22</v>
@@ -1119,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>23</v>
@@ -1155,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
@@ -1191,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -1239,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>22</v>
@@ -1296,22 +1296,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C496A39-1222-C345-92DF-CA69EE035059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA476E26-B44E-AA4B-9941-45281261D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
+    <workbookView xWindow="21100" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Free</t>
   </si>
   <si>
-    <t>Juan Fernandez Islands</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
@@ -148,18 +145,6 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Moorea coral reef</t>
-  </si>
-  <si>
-    <t>Japan common squid</t>
-  </si>
-  <si>
-    <t>US Atlantic pelagic longline</t>
-  </si>
-  <si>
-    <t>Maine lobster</t>
-  </si>
-  <si>
     <t>US West Coast Pacific sardine</t>
   </si>
   <si>
@@ -175,15 +160,6 @@
     <t>Kiribati giant clam</t>
   </si>
   <si>
-    <t>NE Atlantic pelagic</t>
-  </si>
-  <si>
-    <t>Madagascar reef fish</t>
-  </si>
-  <si>
-    <t>Bering Sea groundfish</t>
-  </si>
-  <si>
     <t>Fiji nearshore</t>
   </si>
   <si>
@@ -244,13 +220,37 @@
     <t>Kleisner/Cunningham</t>
   </si>
   <si>
-    <t>Galicia stalked barnacles</t>
-  </si>
-  <si>
-    <t>Japan spiny lobster</t>
-  </si>
-  <si>
     <t>Senegal small pelagics</t>
+  </si>
+  <si>
+    <t>Galicia stalked barnacle</t>
+  </si>
+  <si>
+    <t>NE Atlantic small pelagics</t>
+  </si>
+  <si>
+    <t>Madagascar nearshore</t>
+  </si>
+  <si>
+    <t>Alaska Bering Sea groundfish</t>
+  </si>
+  <si>
+    <t>Maine American lobster</t>
+  </si>
+  <si>
+    <t>Juan Fernandez Islands demersal</t>
+  </si>
+  <si>
+    <t>Hokkaido set-net</t>
+  </si>
+  <si>
+    <t>US Atlantic and Gulf migratory pelagics</t>
+  </si>
+  <si>
+    <t>Mie spiny lobster</t>
+  </si>
+  <si>
+    <t>Moorea reef fish</t>
   </si>
 </sst>
 </file>
@@ -626,14 +626,14 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -655,28 +655,28 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -684,25 +684,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I19" si="0">ABS(J2)</f>
@@ -720,25 +720,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
@@ -759,22 +759,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -795,22 +795,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -831,22 +831,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
@@ -864,25 +864,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -903,22 +903,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -936,25 +936,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -972,25 +972,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -1008,25 +1008,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -1047,22 +1047,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -1083,22 +1083,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -1119,22 +1119,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -1155,22 +1155,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -1194,19 +1194,19 @@
         <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -1227,22 +1227,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -1296,25 +1296,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA476E26-B44E-AA4B-9941-45281261D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BE065-2629-7A48-99BA-463D22FFFFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21100" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BE065-2629-7A48-99BA-463D22FFFFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04DFBE-428A-5249-A0F9-F7A05659FBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21100" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
@@ -18,20 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -232,9 +222,6 @@
     <t>Madagascar nearshore</t>
   </si>
   <si>
-    <t>Alaska Bering Sea groundfish</t>
-  </si>
-  <si>
     <t>Maine American lobster</t>
   </si>
   <si>
@@ -251,6 +238,9 @@
   </si>
   <si>
     <t>Moorea reef fish</t>
+  </si>
+  <si>
+    <t>US Bering Sea groundfish</t>
   </si>
 </sst>
 </file>
@@ -626,7 +616,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,7 +929,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
@@ -975,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>
@@ -1011,7 +1001,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
@@ -1119,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -1191,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -1227,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
@@ -1263,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
@@ -1329,7 +1319,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{AEE2DA7E-BB06-9C4E-BB11-C7D5A6AED76B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
+    <sortState ref="A2:K18">
       <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>

--- a/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
+++ b/case_study_analysis/cf_scripts/data/case_study_meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_resilience/climate-resilient-fisheries/case_study_analysis/cf_scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04DFBE-428A-5249-A0F9-F7A05659FBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26BCB1-5CF4-CE40-ADBB-D7413A50A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
+    <workbookView xWindow="7800" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{64AC2A7C-3AC6-264D-A117-FA5C5DCDB163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$18</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -291,12 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,7 +626,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,656 +680,656 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <f t="shared" ref="I2:I19" si="0">ABS(J2)</f>
         <v>42.5</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>42.5</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>-8.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <f t="shared" si="0"/>
         <v>32.715000000000003</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>32.715000000000003</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>-117.16249999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>56</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>1.4166669999999999</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>1.4166669999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>36.621070000000003</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>36.621070000000003</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>-119.93416999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>17.416088999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>-17.416088999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>178.35775799999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>-20</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>58</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>-178</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>33.641388999999997</v>
+      </c>
+      <c r="J11">
+        <v>-33.641388999999997</v>
+      </c>
+      <c r="K11">
+        <v>-78.841110999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>5.2166670000000002</v>
+      </c>
+      <c r="J12">
+        <v>-5.2166670000000002</v>
+      </c>
+      <c r="K12">
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="J10" s="3">
-        <v>43</v>
-      </c>
-      <c r="K10" s="3">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J15">
+        <v>-42</v>
+      </c>
+      <c r="K15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>33.641388999999997</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-33.641388999999997</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-78.841110999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.2166670000000002</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-5.2166670000000002</v>
-      </c>
-      <c r="K12" s="3">
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="J13" s="3">
-        <v>65</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J14" s="3">
-        <v>45</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-42</v>
-      </c>
-      <c r="K15" s="3">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J16" s="3">
-        <v>36</v>
-      </c>
-      <c r="K16" s="3">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J17" s="3">
-        <v>25</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>17.533332999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>-17.533332999999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>-149.83333300000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>15.849506</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>15.849506</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>-17.417577000000001</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{AEE2DA7E-BB06-9C4E-BB11-C7D5A6AED76B}">
-    <sortState ref="A2:K18">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
       <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>
